--- a/Data/Dtw_Ergebnis.xlsx
+++ b/Data/Dtw_Ergebnis.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE21906-F0BE-4726-A073-3F7407F22B47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFF9BE4-5F16-46AB-B7BD-40927358311E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="E_SWnR" sheetId="1" r:id="rId1"/>
-    <sheet name="E_SWnL" sheetId="2" r:id="rId2"/>
-    <sheet name="E_Spurhalten1" sheetId="3" r:id="rId3"/>
-    <sheet name="E_Spurhalten2" sheetId="4" r:id="rId4"/>
+    <sheet name="Label_ego" sheetId="5" r:id="rId1"/>
+    <sheet name="E_SWnR" sheetId="1" r:id="rId2"/>
+    <sheet name="E_SWnL" sheetId="2" r:id="rId3"/>
+    <sheet name="E_Spurhalten1" sheetId="3" r:id="rId4"/>
+    <sheet name="E_Spurhalten2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,21 +24,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>Iteration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>dtw_lanechangeright</t>
   </si>
   <si>
-    <t>dtw_lanechangeleft</t>
+    <t>Number of Loops</t>
   </si>
   <si>
-    <t>dtw_lanekeep1</t>
+    <t xml:space="preserve">start time </t>
   </si>
   <si>
-    <t>dtw_lanekeep2</t>
+    <t>stop time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start time </t>
+  </si>
+  <si>
+    <t>Stop time</t>
+  </si>
+  <si>
+    <t>Lane change right</t>
+  </si>
+  <si>
+    <t>lane chang left</t>
+  </si>
+  <si>
+    <t>Number of loops</t>
+  </si>
+  <si>
+    <t>d_dtw</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -354,497 +373,2043 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AD24BF-AAF0-460C-890F-55C50F9191CF}">
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1297486786144173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1000000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.4410000000001517</v>
+      </c>
+      <c r="D2">
+        <v>0.14306691745252742</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>937.15355851076311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.7309999999998102</v>
+      </c>
+      <c r="C3">
+        <v>8.1610000000009162</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1174.5687548675924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.4510000000001551</v>
+      </c>
+      <c r="C4">
+        <v>10.880999999999409</v>
+      </c>
+      <c r="D4">
+        <v>3.6527501009404659</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1176.2163812675863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8.1710000000009106</v>
+      </c>
+      <c r="C5">
+        <v>13.600999999997901</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1176.24188871769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10.890999999999403</v>
+      </c>
+      <c r="C6">
+        <v>16.320999999996964</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1176.2501756706624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13.610999999997896</v>
+      </c>
+      <c r="C7">
+        <v>19.041000000000288</v>
+      </c>
+      <c r="D7">
+        <v>0.63568878173828125</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1176.2571694412618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16.330999999996976</v>
+      </c>
+      <c r="C8">
+        <v>21.761000000003612</v>
+      </c>
+      <c r="D8">
+        <v>0.11094570159912109</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1176.1400494137197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19.0510000000003</v>
+      </c>
+      <c r="C9">
+        <v>24.481000000006937</v>
+      </c>
+      <c r="D9">
+        <v>6.4786911010742188E-2</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1176.1094243088155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21.771000000003625</v>
+      </c>
+      <c r="C10">
+        <v>27.201000000010261</v>
+      </c>
+      <c r="D10">
+        <v>5.6419134140014648E-2</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1156.98784823803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24.491000000006949</v>
+      </c>
+      <c r="C11">
+        <v>29.921000000013585</v>
+      </c>
+      <c r="D11">
+        <v>5.3705453872680664E-2</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1180.3476936378866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27.211000000010273</v>
+      </c>
+      <c r="C12">
+        <v>32.641000000014628</v>
+      </c>
+      <c r="D12">
+        <v>5.4887294769287109E-2</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1189.0229515591054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29.931000000013597</v>
+      </c>
+      <c r="C13">
+        <v>35.361000000008289</v>
+      </c>
+      <c r="D13">
+        <v>6.0608625411987305E-2</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1214.197747425118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32.651000000014605</v>
+      </c>
+      <c r="C14">
+        <v>38.08100000000195</v>
+      </c>
+      <c r="D14">
+        <v>6.1492204666137695E-2</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>236.84200616268208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35.371000000008266</v>
+      </c>
+      <c r="C15">
+        <v>40.800999999995611</v>
+      </c>
+      <c r="D15">
+        <v>7.0230484008789063E-2</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>20.12492035690957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38.091000000001927</v>
+      </c>
+      <c r="C16">
+        <v>43.520999999989272</v>
+      </c>
+      <c r="D16">
+        <v>0.12577342987060547</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>14.720931888499763</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40.810999999995587</v>
+      </c>
+      <c r="C17">
+        <v>46.240999999982932</v>
+      </c>
+      <c r="D17">
+        <v>0.22630953788757324</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.7914843940525316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43.530999999989248</v>
+      </c>
+      <c r="C18">
+        <v>48.960999999976593</v>
+      </c>
+      <c r="D18">
+        <v>0.23818039894104004</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8.6598635995178483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46.250999999982909</v>
+      </c>
+      <c r="C19">
+        <v>51.680999999970254</v>
+      </c>
+      <c r="D19">
+        <v>0.15883755683898926</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.2195182600407861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48.97099999997657</v>
+      </c>
+      <c r="C20">
+        <v>54.400999999963915</v>
+      </c>
+      <c r="D20">
+        <v>5.5477027893066406</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8.5987494447617792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51.690999999970231</v>
+      </c>
+      <c r="C21">
+        <v>57.120999999957576</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8.3708950960426591</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54.410999999963892</v>
+      </c>
+      <c r="C22">
+        <v>59.840999999951237</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7.9768317797570489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57.130999999957552</v>
+      </c>
+      <c r="C23">
+        <v>62.560999999944897</v>
+      </c>
+      <c r="D23">
+        <v>5.8193254470825195</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7.7851735287695192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59.850999999951213</v>
+      </c>
+      <c r="C24">
+        <v>65.280999999947653</v>
+      </c>
+      <c r="D24">
+        <v>8.8112213611602783</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7.891091653087642</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62.570999999944874</v>
+      </c>
+      <c r="C25">
+        <v>68.000999999960641</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8.0640140408067964</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65.290999999947701</v>
+      </c>
+      <c r="C26">
+        <v>70.720999999973628</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7.9910460123210214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68.010999999960688</v>
+      </c>
+      <c r="C27">
+        <v>73.440999999986616</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7.4128095143823884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70.730999999973676</v>
+      </c>
+      <c r="C28">
+        <v>76.160999999999603</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4.5291715198545717</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73.450999999986664</v>
+      </c>
+      <c r="C29">
+        <v>78.881000000012591</v>
+      </c>
+      <c r="D29">
+        <v>2.9356111291635898</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.326336421945598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76.170999999999651</v>
+      </c>
+      <c r="C30">
+        <v>81.601000000025579</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>291.58759940316668</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78.891000000012639</v>
+      </c>
+      <c r="C31">
+        <v>84.321000000038566</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1016.520522312203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81.611000000025626</v>
+      </c>
+      <c r="C32">
+        <v>87.041000000051554</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>42.437405466509517</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84.331000000038614</v>
+      </c>
+      <c r="C33">
+        <v>89.761000000064541</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1152.7515277424245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87.051000000051602</v>
+      </c>
+      <c r="C34">
+        <v>92.481000000077529</v>
+      </c>
+      <c r="D34">
+        <v>9.6595061281113885</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.8840585165016819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89.771000000064589</v>
+      </c>
+      <c r="C35">
+        <v>95.201000000090517</v>
+      </c>
+      <c r="D35">
+        <v>8.6139013179927133</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>230.02359728055308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92.491000000077577</v>
+      </c>
+      <c r="C36">
+        <v>97.921000000103504</v>
+      </c>
+      <c r="D36">
+        <v>8.664873183646705</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1176.4676582374959</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95.211000000090564</v>
+      </c>
+      <c r="C37">
+        <v>100.64100000011649</v>
+      </c>
+      <c r="D37">
+        <v>8.3918970906524919</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1175.4797231712728</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97.931000000103552</v>
+      </c>
+      <c r="C38">
+        <v>103.36100000012948</v>
+      </c>
+      <c r="D38">
+        <v>8.2364767947583459</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1176.2510125198751</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100.65100000011654</v>
+      </c>
+      <c r="C39">
+        <v>106.08100000014247</v>
+      </c>
+      <c r="D39">
+        <v>8.5387502544908784</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1022.1328568020253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103.37100000012953</v>
+      </c>
+      <c r="C40">
+        <v>108.80100000015545</v>
+      </c>
+      <c r="D40">
+        <v>8.5836654612212442</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>486.74659347621491</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106.09100000014251</v>
+      </c>
+      <c r="C41">
+        <v>111.52100000016844</v>
+      </c>
+      <c r="D41">
+        <v>8.3134400257258676</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>471.72695262817433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>108.8110000001555</v>
+      </c>
+      <c r="C42">
+        <v>114.24100000018143</v>
+      </c>
+      <c r="D42">
+        <v>8.3742558890371583</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>904.90975196746876</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>111.53100000016849</v>
+      </c>
+      <c r="C43">
+        <v>116.96100000019442</v>
+      </c>
+      <c r="D43">
+        <v>8.0442724907188676</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1176.3783666649251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114.25100000018148</v>
+      </c>
+      <c r="C44">
+        <v>119.6810000002074</v>
+      </c>
+      <c r="D44">
+        <v>7.9978448831825517</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1204.5124320545583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116.97100000019446</v>
+      </c>
+      <c r="C45">
+        <v>122.40100000022039</v>
+      </c>
+      <c r="D45">
+        <v>8.1461805933504365</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>9.5482664775336161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>119.69100000020745</v>
+      </c>
+      <c r="C46">
+        <v>125.12100000023338</v>
+      </c>
+      <c r="D46">
+        <v>7.7580832996754907</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>14.540389129557298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>122.41100000022044</v>
+      </c>
+      <c r="C47">
+        <v>127.84100000024637</v>
+      </c>
+      <c r="D47">
+        <v>7.6068667107610963</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>11.746521600463893</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125.13100000023343</v>
+      </c>
+      <c r="C48">
+        <v>130.56100000025936</v>
+      </c>
+      <c r="D48">
+        <v>7.9343354934244417</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>9.1456375056295656</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127.85100000024642</v>
+      </c>
+      <c r="C49">
+        <v>133.28100000027234</v>
+      </c>
+      <c r="D49">
+        <v>7.8144992002635263</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>9.0556409144192003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>130.5710000002594</v>
+      </c>
+      <c r="C50">
+        <v>136.00100000028533</v>
+      </c>
+      <c r="D50">
+        <v>8.1189480507164262</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>9.428174578526523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>133.29100000027239</v>
+      </c>
+      <c r="C51">
+        <v>138.72100000029832</v>
+      </c>
+      <c r="D51">
+        <v>8.2383754038601182</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>9.606233426311519</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>136.01100000028538</v>
+      </c>
+      <c r="C52">
+        <v>141.44100000031131</v>
+      </c>
+      <c r="D52">
+        <v>8.0165024035959505</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>9.6448151254444383</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138.73100000029837</v>
+      </c>
+      <c r="C53">
+        <v>144.16100000032429</v>
+      </c>
+      <c r="D53">
+        <v>8.194577471294906</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>9.4589752489118837</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>141.45100000031135</v>
+      </c>
+      <c r="C54">
+        <v>146.88100000033728</v>
+      </c>
+      <c r="D54">
+        <v>7.2867240169434808</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>8.714850754418876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>144.17100000032434</v>
+      </c>
+      <c r="C55">
+        <v>149.60100000035027</v>
+      </c>
+      <c r="D55">
+        <v>6.0599015065818094</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>9.7572002196102403</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>146.89100000033733</v>
+      </c>
+      <c r="C56">
+        <v>152.32100000036326</v>
+      </c>
+      <c r="D56">
+        <v>4.2826687776832841</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>11.130249523499515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>149.61100000035032</v>
+      </c>
+      <c r="C57">
+        <v>155.04100000037624</v>
+      </c>
+      <c r="D57">
+        <v>2.2706911758868955</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8.3730237045674585</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>152.3310000003633</v>
+      </c>
+      <c r="C58">
+        <v>157.76100000038923</v>
+      </c>
+      <c r="D58">
+        <v>1.2857692418037914</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5.8606192552833818</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>155.05100000037629</v>
+      </c>
+      <c r="C59">
+        <v>160.48100000040222</v>
+      </c>
+      <c r="D59">
+        <v>6.5144924613996409</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.76938094681827351</v>
+        <v>157.77100000038928</v>
+      </c>
+      <c r="C60">
+        <v>163.20100000041521</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>160.49100000040227</v>
+      </c>
+      <c r="C61">
+        <v>165.92100000042819</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>163.21100000041525</v>
+      </c>
+      <c r="C62">
+        <v>168.64100000044118</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>165.93100000042824</v>
+      </c>
+      <c r="C63">
+        <v>171.36100000045417</v>
+      </c>
+      <c r="D63">
+        <v>1.8742691807565279</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>168.65100000044123</v>
+      </c>
+      <c r="C64">
+        <v>174.08100000046716</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>171.37100000045422</v>
+      </c>
+      <c r="C65">
+        <v>176.80100000048014</v>
+      </c>
+      <c r="D65">
+        <v>8.3483974283735733</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>174.0910000004672</v>
+      </c>
+      <c r="C66">
+        <v>179.52100000049313</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>176.81100000048019</v>
+      </c>
+      <c r="C67">
+        <v>182.24100000050612</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>179.53100000049318</v>
+      </c>
+      <c r="C68">
+        <v>184.96100000051911</v>
+      </c>
+      <c r="D68">
+        <v>7.2535077883221675</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>182.25100000050617</v>
+      </c>
+      <c r="C69">
+        <v>187.68100000053209</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>184.97100000051915</v>
+      </c>
+      <c r="C70">
+        <v>190.40100000054508</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>187.69100000053214</v>
+      </c>
+      <c r="C71">
+        <v>193.12100000055807</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>190.41100000054513</v>
+      </c>
+      <c r="C72">
+        <v>195.84100000057106</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>193.13100000055812</v>
+      </c>
+      <c r="C73">
+        <v>198.56100000058404</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>195.8510000005711</v>
+      </c>
+      <c r="C74">
+        <v>201.28100000059703</v>
+      </c>
+      <c r="D74">
+        <v>0.17231559753417969</v>
+      </c>
+      <c r="E74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>198.57100000058409</v>
+      </c>
+      <c r="C75">
+        <v>204.00100000061002</v>
+      </c>
+      <c r="D75">
+        <v>9.6292972564697266E-2</v>
+      </c>
+      <c r="E75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>201.29100000059708</v>
+      </c>
+      <c r="C76">
+        <v>206.72100000062301</v>
+      </c>
+      <c r="D76">
+        <v>5.8663606643676758E-2</v>
+      </c>
+      <c r="E76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>204.01100000061007</v>
+      </c>
+      <c r="C77">
+        <v>209.441000000636</v>
+      </c>
+      <c r="D77">
+        <v>5.5062294006347656E-2</v>
+      </c>
+      <c r="E77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>206.73100000062306</v>
+      </c>
+      <c r="C78">
+        <v>212.16100000064898</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>209.45100000063604</v>
+      </c>
+      <c r="C79">
+        <v>214.88100000066197</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>212.17100000064903</v>
+      </c>
+      <c r="C80">
+        <v>217.60100000067496</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>214.89100000066202</v>
+      </c>
+      <c r="C81">
+        <v>220.32100000068795</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>217.61100000067501</v>
+      </c>
+      <c r="C82">
+        <v>223.04100000070093</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>220.33100000068799</v>
+      </c>
+      <c r="C83">
+        <v>225.76100000071392</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>223.05100000070098</v>
+      </c>
+      <c r="C84">
+        <v>228.48100000072691</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>225.77100000071397</v>
+      </c>
+      <c r="C85">
+        <v>231.2010000007399</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>228.49100000072696</v>
+      </c>
+      <c r="C86">
+        <v>233.92100000075288</v>
+      </c>
+      <c r="D86">
+        <v>8.8664710521697998</v>
+      </c>
+      <c r="E86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>231.21100000073994</v>
+      </c>
+      <c r="C87">
+        <v>236.64100000076587</v>
+      </c>
+      <c r="D87">
+        <v>6.5813558101654053</v>
+      </c>
+      <c r="E87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>233.93100000075293</v>
+      </c>
+      <c r="C88">
+        <v>239.36100000077886</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>236.65100000076592</v>
+      </c>
+      <c r="C89">
+        <v>242.08100000079185</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>239.37100000077891</v>
+      </c>
+      <c r="C90">
+        <v>244.80100000080483</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>242.09100000079189</v>
+      </c>
+      <c r="C91">
+        <v>247.52100000081782</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>244.81100000080488</v>
+      </c>
+      <c r="C92">
+        <v>250.24100000083081</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>247.53100000081787</v>
+      </c>
+      <c r="C93">
+        <v>252.9610000008438</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>250.25100000083086</v>
+      </c>
+      <c r="C94">
+        <v>255.68100000085678</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>252.97100000084384</v>
+      </c>
+      <c r="C95">
+        <v>258.4010000008015</v>
+      </c>
+      <c r="D95">
+        <v>9.4799624615698121</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>255.69100000085683</v>
+      </c>
+      <c r="C96">
+        <v>261.12100000073718</v>
+      </c>
+      <c r="D96">
+        <v>9.0817370945005678</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>258.41100000080127</v>
+      </c>
+      <c r="C97">
+        <v>263.84100000067286</v>
+      </c>
+      <c r="D97">
+        <v>9.1542574921040796</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>261.13100000073695</v>
+      </c>
+      <c r="C98">
+        <v>266.56100000060854</v>
+      </c>
+      <c r="D98">
+        <v>9.024427943804767</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>263.85100000067263</v>
+      </c>
+      <c r="C99">
+        <v>269.28100000054422</v>
+      </c>
+      <c r="D99">
+        <v>9.3478003600030206</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>266.57100000060831</v>
+      </c>
+      <c r="C100">
+        <v>272.00100000047991</v>
+      </c>
+      <c r="D100">
+        <v>9.4205497735529207</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>269.29100000054399</v>
+      </c>
+      <c r="C101">
+        <v>274.72100000041559</v>
+      </c>
+      <c r="D101">
+        <v>9.8158804484992288</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>272.01100000047967</v>
+      </c>
+      <c r="C102">
+        <v>277.44100000035127</v>
+      </c>
+      <c r="D102">
+        <v>9.6977468216209672</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>274.73100000041535</v>
+      </c>
+      <c r="C103">
+        <v>280.16100000028695</v>
+      </c>
+      <c r="D103">
+        <v>9.7195868351846002</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>277.45100000035103</v>
+      </c>
+      <c r="C104">
+        <v>282.88100000022263</v>
+      </c>
+      <c r="D104">
+        <v>9.7362486579804681</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>280.17100000028671</v>
+      </c>
+      <c r="C105">
+        <v>285.60100000015831</v>
+      </c>
+      <c r="D105">
+        <v>9.5253503927378915</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>282.89100000022239</v>
+      </c>
+      <c r="C106">
+        <v>288.32100000009399</v>
+      </c>
+      <c r="D106">
+        <v>9.3328824871568941</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>285.61100000015807</v>
+      </c>
+      <c r="C107">
+        <v>291.04100000002967</v>
+      </c>
+      <c r="D107">
+        <v>9.1366228917031549</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>288.33100000009375</v>
+      </c>
+      <c r="C108">
+        <v>293.76099999996535</v>
+      </c>
+      <c r="D108">
+        <v>8.6286079892306589</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>291.05100000002943</v>
+      </c>
+      <c r="C109">
+        <v>296.48099999990103</v>
+      </c>
+      <c r="D109">
+        <v>8.6903895073919557</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>293.77099999996511</v>
+      </c>
+      <c r="C110">
+        <v>299.20099999983671</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>296.49099999990079</v>
+      </c>
+      <c r="C111">
+        <v>301.92099999977239</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>299.21099999983647</v>
+      </c>
+      <c r="C112">
+        <v>304.64099999970807</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>301.93099999977215</v>
+      </c>
+      <c r="C113">
+        <v>307.36099999964375</v>
+      </c>
+      <c r="D113">
+        <v>8.9578202971606515</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>304.65099999970784</v>
+      </c>
+      <c r="C114">
+        <v>310.08099999957943</v>
+      </c>
+      <c r="D114">
+        <v>8.219769389310386</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>307.37099999964352</v>
+      </c>
+      <c r="C115">
+        <v>312.80099999951511</v>
+      </c>
+      <c r="D115">
+        <v>6.9879631930380128</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>310.0909999995792</v>
+      </c>
+      <c r="C116">
+        <v>315.52099999945079</v>
+      </c>
+      <c r="D116">
+        <v>5.4716014349251054</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>312.81099999951488</v>
+      </c>
+      <c r="C117">
+        <v>318.24099999938647</v>
+      </c>
+      <c r="D117">
+        <v>3.391753003874328</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>315.53099999945056</v>
+      </c>
+      <c r="C118">
+        <v>318.85099999937205</v>
+      </c>
+      <c r="D118">
+        <v>0.7492488379648421</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>318.25099999938624</v>
+      </c>
+      <c r="C119">
+        <v>318.85099999937205</v>
+      </c>
+      <c r="D119">
+        <v>0.66694779708632268</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -853,427 +2418,2044 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6257458F-D35A-4EBE-80FB-A18B75DC728B}">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1086.9006708512898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1000000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.4410000000001517</v>
+      </c>
+      <c r="D2">
+        <v>0.14306691745252742</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16.907962769269943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.7309999999998102</v>
+      </c>
+      <c r="C3">
+        <v>8.1610000000009162</v>
+      </c>
+      <c r="D3">
+        <v>175.57211568854393</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.0278465747833252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.4510000000001551</v>
+      </c>
+      <c r="C4">
+        <v>10.880999999999409</v>
+      </c>
+      <c r="D4">
+        <v>952.62184128252557</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.2299489974975586E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8.1710000000009106</v>
+      </c>
+      <c r="C5">
+        <v>13.600999999997901</v>
+      </c>
+      <c r="D5">
+        <v>1180.9262990513234</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.5083513259887695E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10.890999999999403</v>
+      </c>
+      <c r="C6">
+        <v>16.320999999996964</v>
+      </c>
+      <c r="D6">
+        <v>1174.5795459309011</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.3324689865112305E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13.610999999997896</v>
+      </c>
+      <c r="C7">
+        <v>19.041000000000288</v>
+      </c>
+      <c r="D7">
+        <v>1175.461530880013</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.19376254081726074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16.330999999996976</v>
+      </c>
+      <c r="C8">
+        <v>21.761000000003612</v>
+      </c>
+      <c r="D8">
+        <v>1176.22701878933</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.20550155639648438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19.0510000000003</v>
+      </c>
+      <c r="C9">
+        <v>24.481000000006937</v>
+      </c>
+      <c r="D9">
+        <v>1176.2540604629903</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>39.384566783905029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21.771000000003625</v>
+      </c>
+      <c r="C10">
+        <v>27.201000000010261</v>
+      </c>
+      <c r="D10">
+        <v>1176.2428249874501</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.2722206115722656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24.491000000006949</v>
+      </c>
+      <c r="C11">
+        <v>29.921000000013585</v>
+      </c>
+      <c r="D11">
+        <v>1176.2460388698964</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>40.27475380897522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27.211000000010273</v>
+      </c>
+      <c r="C12">
+        <v>32.641000000014628</v>
+      </c>
+      <c r="D12">
+        <v>1176.2513010063558</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>780.9409808581695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29.931000000013597</v>
+      </c>
+      <c r="C13">
+        <v>35.361000000008289</v>
+      </c>
+      <c r="D13">
+        <v>1176.2578520336538</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1148.132570240472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32.651000000014605</v>
+      </c>
+      <c r="C14">
+        <v>38.08100000000195</v>
+      </c>
+      <c r="D14">
+        <v>1176.2579054394155</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1140.1897476837039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35.371000000008266</v>
+      </c>
+      <c r="C15">
+        <v>40.800999999995611</v>
+      </c>
+      <c r="D15">
+        <v>1176.2361909904866</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1153.0865270867944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38.091000000001927</v>
+      </c>
+      <c r="C16">
+        <v>43.520999999989272</v>
+      </c>
+      <c r="D16">
+        <v>1176.1342877903371</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1155.5225445702672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40.810999999995587</v>
+      </c>
+      <c r="C17">
+        <v>46.240999999982932</v>
+      </c>
+      <c r="D17">
+        <v>1176.0284626045614</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1155.2881559282541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43.530999999989248</v>
+      </c>
+      <c r="C18">
+        <v>48.960999999976593</v>
+      </c>
+      <c r="D18">
+        <v>1176.1242651501088</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1155.9348739683628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46.250999999982909</v>
+      </c>
+      <c r="C19">
+        <v>51.680999999970254</v>
+      </c>
+      <c r="D19">
+        <v>1177.1392957725911</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1157.3621020466089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48.97099999997657</v>
+      </c>
+      <c r="C20">
+        <v>54.400999999963915</v>
+      </c>
+      <c r="D20">
+        <v>1157.0930811920553</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1158.5637063607574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51.690999999970231</v>
+      </c>
+      <c r="C21">
+        <v>57.120999999957576</v>
+      </c>
+      <c r="D21">
+        <v>1202.3440649071126</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1156.8640177175403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54.410999999963892</v>
+      </c>
+      <c r="C22">
+        <v>59.840999999951237</v>
+      </c>
+      <c r="D22">
+        <v>1180.4001273670583</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1157.0872931033373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57.130999999957552</v>
+      </c>
+      <c r="C23">
+        <v>62.560999999944897</v>
+      </c>
+      <c r="D23">
+        <v>1183.4087028065114</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1160.0113018080592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59.850999999951213</v>
+      </c>
+      <c r="C24">
+        <v>65.280999999947653</v>
+      </c>
+      <c r="D24">
+        <v>1189.4079288998037</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1177.9464101493359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62.570999999944874</v>
+      </c>
+      <c r="C25">
+        <v>68.000999999960641</v>
+      </c>
+      <c r="D25">
+        <v>1199.6733903446584</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>673.81380286233616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65.290999999947701</v>
+      </c>
+      <c r="C26">
+        <v>70.720999999973628</v>
+      </c>
+      <c r="D26">
+        <v>1215.1280526676564</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>24.39422070980072</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68.010999999960688</v>
+      </c>
+      <c r="C27">
+        <v>73.440999999986616</v>
+      </c>
+      <c r="D27">
+        <v>1227.2886426010518</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>576.35881655869889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70.730999999973676</v>
+      </c>
+      <c r="C28">
+        <v>76.160999999999603</v>
+      </c>
+      <c r="D28">
+        <v>171.91554786352208</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>27.48518967628479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73.450999999986664</v>
+      </c>
+      <c r="C29">
+        <v>78.881000000012591</v>
+      </c>
+      <c r="D29">
+        <v>2.9356111291635898</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1219.3799141461204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76.170999999999651</v>
+      </c>
+      <c r="C30">
+        <v>81.601000000025579</v>
+      </c>
+      <c r="D30">
+        <v>21.141718473176297</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>22.174198712134967</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78.891000000012639</v>
+      </c>
+      <c r="C31">
+        <v>84.321000000038566</v>
+      </c>
+      <c r="D31">
+        <v>12.821478747704532</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3.1179087162017822</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81.611000000025626</v>
+      </c>
+      <c r="C32">
+        <v>87.041000000051554</v>
+      </c>
+      <c r="D32">
+        <v>15.107812539616134</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6.6346645355224609E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84.331000000038614</v>
+      </c>
+      <c r="C33">
+        <v>89.761000000064541</v>
+      </c>
+      <c r="D33">
+        <v>12.666532576957252</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>256.925417304039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87.051000000051602</v>
+      </c>
+      <c r="C34">
+        <v>92.481000000077529</v>
+      </c>
+      <c r="D34">
+        <v>9.6595061281113885</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>30.334529265761375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89.771000000064589</v>
+      </c>
+      <c r="C35">
+        <v>95.201000000090517</v>
+      </c>
+      <c r="D35">
+        <v>8.6139013179927133</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>116.47069662602735</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92.491000000077577</v>
+      </c>
+      <c r="C36">
+        <v>97.921000000103504</v>
+      </c>
+      <c r="D36">
+        <v>8.664873183646705</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>18.735119581222534</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95.211000000090564</v>
+      </c>
+      <c r="C37">
+        <v>100.64100000011649</v>
+      </c>
+      <c r="D37">
+        <v>8.3918970906524919</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>39.839162349700928</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97.931000000103552</v>
+      </c>
+      <c r="C38">
+        <v>103.36100000012948</v>
+      </c>
+      <c r="D38">
+        <v>8.2364767947583459</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1188.2334752210736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100.65100000011654</v>
+      </c>
+      <c r="C39">
+        <v>106.08100000014247</v>
+      </c>
+      <c r="D39">
+        <v>8.5387502544908784</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1158.1386357266456</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103.37100000012953</v>
+      </c>
+      <c r="C40">
+        <v>108.80100000015545</v>
+      </c>
+      <c r="D40">
+        <v>8.5836654612212442</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1151.5927444472909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106.09100000014251</v>
+      </c>
+      <c r="C41">
+        <v>111.52100000016844</v>
+      </c>
+      <c r="D41">
+        <v>8.3134400257258676</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1152.7076511159539</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>108.8110000001555</v>
+      </c>
+      <c r="C42">
+        <v>114.24100000018143</v>
+      </c>
+      <c r="D42">
+        <v>8.3742558890371583</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1151.439329341054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>111.53100000016849</v>
+      </c>
+      <c r="C43">
+        <v>116.96100000019442</v>
+      </c>
+      <c r="D43">
+        <v>8.0442724907188676</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1149.8458525836468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114.25100000018148</v>
+      </c>
+      <c r="C44">
+        <v>119.6810000002074</v>
+      </c>
+      <c r="D44">
+        <v>7.9978448831825517</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1150.025120832026</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116.97100000019446</v>
+      </c>
+      <c r="C45">
+        <v>122.40100000022039</v>
+      </c>
+      <c r="D45">
+        <v>8.1461805933504365</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1151.3743393644691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>119.69100000020745</v>
+      </c>
+      <c r="C46">
+        <v>125.12100000023338</v>
+      </c>
+      <c r="D46">
+        <v>7.7580832996754907</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1154.0132500901818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>122.41100000022044</v>
+      </c>
+      <c r="C47">
+        <v>127.84100000024637</v>
+      </c>
+      <c r="D47">
+        <v>7.6068667107610963</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1138.7314599528909</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125.13100000023343</v>
+      </c>
+      <c r="C48">
+        <v>130.56100000025936</v>
+      </c>
+      <c r="D48">
+        <v>7.9343354934244417</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1153.8446853160858</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127.85100000024642</v>
+      </c>
+      <c r="C49">
+        <v>133.28100000027234</v>
+      </c>
+      <c r="D49">
+        <v>7.8144992002635263</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1166.8108240477741</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>130.5710000002594</v>
+      </c>
+      <c r="C50">
+        <v>136.00100000028533</v>
+      </c>
+      <c r="D50">
+        <v>8.1189480507164262</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1203.7440890073776</v>
+        <v>133.29100000027239</v>
+      </c>
+      <c r="C51">
+        <v>138.72100000029832</v>
+      </c>
+      <c r="D51">
+        <v>8.2383754038601182</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>136.01100000028538</v>
+      </c>
+      <c r="C52">
+        <v>141.44100000031131</v>
+      </c>
+      <c r="D52">
+        <v>8.0165024035959505</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>138.73100000029837</v>
+      </c>
+      <c r="C53">
+        <v>144.16100000032429</v>
+      </c>
+      <c r="D53">
+        <v>8.194577471294906</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>141.45100000031135</v>
+      </c>
+      <c r="C54">
+        <v>146.88100000033728</v>
+      </c>
+      <c r="D54">
+        <v>7.2867240169434808</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>144.17100000032434</v>
+      </c>
+      <c r="C55">
+        <v>149.60100000035027</v>
+      </c>
+      <c r="D55">
+        <v>6.0599015065818094</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>146.89100000033733</v>
+      </c>
+      <c r="C56">
+        <v>152.32100000036326</v>
+      </c>
+      <c r="D56">
+        <v>4.2826687776832841</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>149.61100000035032</v>
+      </c>
+      <c r="C57">
+        <v>155.04100000037624</v>
+      </c>
+      <c r="D57">
+        <v>2.2706911758868955</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>152.3310000003633</v>
+      </c>
+      <c r="C58">
+        <v>157.76100000038923</v>
+      </c>
+      <c r="D58">
+        <v>1.2857692418037914</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>155.05100000037629</v>
+      </c>
+      <c r="C59">
+        <v>160.48100000040222</v>
+      </c>
+      <c r="D59">
+        <v>6.5144924613996409</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>157.77100000038928</v>
+      </c>
+      <c r="C60">
+        <v>163.20100000041521</v>
+      </c>
+      <c r="D60">
+        <v>382.67584210721543</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>160.49100000040227</v>
+      </c>
+      <c r="C61">
+        <v>165.92100000042819</v>
+      </c>
+      <c r="D61">
+        <v>1121.522085145989</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>163.21100000041525</v>
+      </c>
+      <c r="C62">
+        <v>168.64100000044118</v>
+      </c>
+      <c r="D62">
+        <v>859.97152800945332</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>165.93100000042824</v>
+      </c>
+      <c r="C63">
+        <v>171.36100000045417</v>
+      </c>
+      <c r="D63">
+        <v>1.8742691807565279</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>168.65100000044123</v>
+      </c>
+      <c r="C64">
+        <v>174.08100000046716</v>
+      </c>
+      <c r="D64">
+        <v>62.124287872051354</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>171.37100000045422</v>
+      </c>
+      <c r="C65">
+        <v>176.80100000048014</v>
+      </c>
+      <c r="D65">
+        <v>685.97302759002196</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>174.0910000004672</v>
+      </c>
+      <c r="C66">
+        <v>179.52100000049313</v>
+      </c>
+      <c r="D66">
+        <v>1169.0616683521657</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>176.81100000048019</v>
+      </c>
+      <c r="C67">
+        <v>182.24100000050612</v>
+      </c>
+      <c r="D67">
+        <v>548.32222743419698</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>179.53100000049318</v>
+      </c>
+      <c r="C68">
+        <v>184.96100000051911</v>
+      </c>
+      <c r="D68">
+        <v>7.2535077883221675</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>182.25100000050617</v>
+      </c>
+      <c r="C69">
+        <v>187.68100000053209</v>
+      </c>
+      <c r="D69">
+        <v>32.001560326229082</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>184.97100000051915</v>
+      </c>
+      <c r="C70">
+        <v>190.40100000054508</v>
+      </c>
+      <c r="D70">
+        <v>327.36079655872891</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>187.69100000053214</v>
+      </c>
+      <c r="C71">
+        <v>193.12100000055807</v>
+      </c>
+      <c r="D71">
+        <v>1122.8996901073842</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>190.41100000054513</v>
+      </c>
+      <c r="C72">
+        <v>195.84100000057106</v>
+      </c>
+      <c r="D72">
+        <v>1174.6800808468251</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>193.13100000055812</v>
+      </c>
+      <c r="C73">
+        <v>198.56100000058404</v>
+      </c>
+      <c r="D73">
+        <v>1174.4058320084005</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>195.8510000005711</v>
+      </c>
+      <c r="C74">
+        <v>201.28100000059703</v>
+      </c>
+      <c r="D74">
+        <v>1175.6608862438588</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>198.57100000058409</v>
+      </c>
+      <c r="C75">
+        <v>204.00100000061002</v>
+      </c>
+      <c r="D75">
+        <v>1176.2677456894307</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>201.29100000059708</v>
+      </c>
+      <c r="C76">
+        <v>206.72100000062301</v>
+      </c>
+      <c r="D76">
+        <v>1176.2483429470449</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>204.01100000061007</v>
+      </c>
+      <c r="C77">
+        <v>209.441000000636</v>
+      </c>
+      <c r="D77">
+        <v>1176.2441818275838</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>206.73100000062306</v>
+      </c>
+      <c r="C78">
+        <v>212.16100000064898</v>
+      </c>
+      <c r="D78">
+        <v>894.71173139003804</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>209.45100000063604</v>
+      </c>
+      <c r="C79">
+        <v>214.88100000066197</v>
+      </c>
+      <c r="D79">
+        <v>34.72175937978318</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>212.17100000064903</v>
+      </c>
+      <c r="C80">
+        <v>217.60100000067496</v>
+      </c>
+      <c r="D80">
+        <v>626.46073609677842</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>214.89100000066202</v>
+      </c>
+      <c r="C81">
+        <v>220.32100000068795</v>
+      </c>
+      <c r="D81">
+        <v>1180.0851997890859</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>217.61100000067501</v>
+      </c>
+      <c r="C82">
+        <v>223.04100000070093</v>
+      </c>
+      <c r="D82">
+        <v>251.53090174583485</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>220.33100000068799</v>
+      </c>
+      <c r="C83">
+        <v>225.76100000071392</v>
+      </c>
+      <c r="D83">
+        <v>253.79123105196049</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>223.05100000070098</v>
+      </c>
+      <c r="C84">
+        <v>228.48100000072691</v>
+      </c>
+      <c r="D84">
+        <v>1037.5503247537999</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>225.77100000071397</v>
+      </c>
+      <c r="C85">
+        <v>231.2010000007399</v>
+      </c>
+      <c r="D85">
+        <v>1176.1376087227254</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>228.49100000072696</v>
+      </c>
+      <c r="C86">
+        <v>233.92100000075288</v>
+      </c>
+      <c r="D86">
+        <v>1176.5441388645559</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>231.21100000073994</v>
+      </c>
+      <c r="C87">
+        <v>236.64100000076587</v>
+      </c>
+      <c r="D87">
+        <v>1161.9276356258779</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>233.93100000075293</v>
+      </c>
+      <c r="C88">
+        <v>239.36100000077886</v>
+      </c>
+      <c r="D88">
+        <v>1190.1302754440694</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>236.65100000076592</v>
+      </c>
+      <c r="C89">
+        <v>242.08100000079185</v>
+      </c>
+      <c r="D89">
+        <v>93.984213248768356</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>239.37100000077891</v>
+      </c>
+      <c r="C90">
+        <v>244.80100000080483</v>
+      </c>
+      <c r="D90">
+        <v>10.926943588652648</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>242.09100000079189</v>
+      </c>
+      <c r="C91">
+        <v>247.52100000081782</v>
+      </c>
+      <c r="D91">
+        <v>19.504963361905538</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>244.81100000080488</v>
+      </c>
+      <c r="C92">
+        <v>250.24100000083081</v>
+      </c>
+      <c r="D92">
+        <v>12.391587668695138</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>247.53100000081787</v>
+      </c>
+      <c r="C93">
+        <v>252.9610000008438</v>
+      </c>
+      <c r="D93">
+        <v>11.770539873221423</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>250.25100000083086</v>
+      </c>
+      <c r="C94">
+        <v>255.68100000085678</v>
+      </c>
+      <c r="D94">
+        <v>11.640157767513301</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>252.97100000084384</v>
+      </c>
+      <c r="C95">
+        <v>258.4010000008015</v>
+      </c>
+      <c r="D95">
+        <v>9.4799624615698121</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>255.69100000085683</v>
+      </c>
+      <c r="C96">
+        <v>261.12100000073718</v>
+      </c>
+      <c r="D96">
+        <v>9.0817370945005678</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>258.41100000080127</v>
+      </c>
+      <c r="C97">
+        <v>263.84100000067286</v>
+      </c>
+      <c r="D97">
+        <v>9.1542574921040796</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>261.13100000073695</v>
+      </c>
+      <c r="C98">
+        <v>266.56100000060854</v>
+      </c>
+      <c r="D98">
+        <v>9.024427943804767</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>263.85100000067263</v>
+      </c>
+      <c r="C99">
+        <v>269.28100000054422</v>
+      </c>
+      <c r="D99">
+        <v>9.3478003600030206</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>266.57100000060831</v>
+      </c>
+      <c r="C100">
+        <v>272.00100000047991</v>
+      </c>
+      <c r="D100">
+        <v>9.4205497735529207</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>269.29100000054399</v>
+      </c>
+      <c r="C101">
+        <v>274.72100000041559</v>
+      </c>
+      <c r="D101">
+        <v>9.8158804484992288</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>272.01100000047967</v>
+      </c>
+      <c r="C102">
+        <v>277.44100000035127</v>
+      </c>
+      <c r="D102">
+        <v>9.6977468216209672</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>274.73100000041535</v>
+      </c>
+      <c r="C103">
+        <v>280.16100000028695</v>
+      </c>
+      <c r="D103">
+        <v>9.7195868351846002</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>277.45100000035103</v>
+      </c>
+      <c r="C104">
+        <v>282.88100000022263</v>
+      </c>
+      <c r="D104">
+        <v>9.7362486579804681</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>280.17100000028671</v>
+      </c>
+      <c r="C105">
+        <v>285.60100000015831</v>
+      </c>
+      <c r="D105">
+        <v>9.5253503927378915</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>282.89100000022239</v>
+      </c>
+      <c r="C106">
+        <v>288.32100000009399</v>
+      </c>
+      <c r="D106">
+        <v>9.3328824871568941</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>285.61100000015807</v>
+      </c>
+      <c r="C107">
+        <v>291.04100000002967</v>
+      </c>
+      <c r="D107">
+        <v>9.1366228917031549</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>288.33100000009375</v>
+      </c>
+      <c r="C108">
+        <v>293.76099999996535</v>
+      </c>
+      <c r="D108">
+        <v>8.6286079892306589</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>291.05100000002943</v>
+      </c>
+      <c r="C109">
+        <v>296.48099999990103</v>
+      </c>
+      <c r="D109">
+        <v>8.6903895073919557</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>293.77099999996511</v>
+      </c>
+      <c r="C110">
+        <v>299.20099999983671</v>
+      </c>
+      <c r="D110">
+        <v>11.321798206248786</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>296.49099999990079</v>
+      </c>
+      <c r="C111">
+        <v>301.92099999977239</v>
+      </c>
+      <c r="D111">
+        <v>17.774084315577056</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>299.21099999983647</v>
+      </c>
+      <c r="C112">
+        <v>304.64099999970807</v>
+      </c>
+      <c r="D112">
+        <v>10.315469854453113</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>301.93099999977215</v>
+      </c>
+      <c r="C113">
+        <v>307.36099999964375</v>
+      </c>
+      <c r="D113">
+        <v>8.9578202971606515</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>304.65099999970784</v>
+      </c>
+      <c r="C114">
+        <v>310.08099999957943</v>
+      </c>
+      <c r="D114">
+        <v>8.219769389310386</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>307.37099999964352</v>
+      </c>
+      <c r="C115">
+        <v>312.80099999951511</v>
+      </c>
+      <c r="D115">
+        <v>6.9879631930380128</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>310.0909999995792</v>
+      </c>
+      <c r="C116">
+        <v>315.52099999945079</v>
+      </c>
+      <c r="D116">
+        <v>5.4716014349251054</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>312.81099999951488</v>
+      </c>
+      <c r="C117">
+        <v>318.24099999938647</v>
+      </c>
+      <c r="D117">
+        <v>3.391753003874328</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>315.53099999945056</v>
+      </c>
+      <c r="C118">
+        <v>318.85099999937205</v>
+      </c>
+      <c r="D118">
+        <v>0.7492488379648421</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>318.25099999938624</v>
+      </c>
+      <c r="C119">
+        <v>318.85099999937205</v>
+      </c>
+      <c r="D119">
+        <v>0.66694779708632268</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1282,28 +4464,1759 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6257458F-D35A-4EBE-80FB-A18B75DC728B}">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.1000000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>6.481000000000499</v>
+      </c>
+      <c r="D2">
+        <v>709.25726538401796</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.250999999999753</v>
+      </c>
+      <c r="C3">
+        <v>9.7210000000000516</v>
+      </c>
+      <c r="D3">
+        <v>1.1921124408836477</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6.4910000000005024</v>
+      </c>
+      <c r="C4">
+        <v>12.960999999998256</v>
+      </c>
+      <c r="D4">
+        <v>80.22554412484169</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9.7310000000000461</v>
+      </c>
+      <c r="C5">
+        <v>16.200999999996817</v>
+      </c>
+      <c r="D5">
+        <v>146.95677304267883</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>12.97099999999825</v>
+      </c>
+      <c r="C6">
+        <v>19.441000000000777</v>
+      </c>
+      <c r="D6">
+        <v>134.47334909439087</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>16.21099999999683</v>
+      </c>
+      <c r="C7">
+        <v>22.681000000004737</v>
+      </c>
+      <c r="D7">
+        <v>133.63007378578186</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>19.451000000000789</v>
+      </c>
+      <c r="C8">
+        <v>25.921000000008696</v>
+      </c>
+      <c r="D8">
+        <v>133.74835109710693</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>22.691000000004749</v>
+      </c>
+      <c r="C9">
+        <v>29.161000000012656</v>
+      </c>
+      <c r="D9">
+        <v>133.74302387237549</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>25.931000000008709</v>
+      </c>
+      <c r="C10">
+        <v>32.401000000015188</v>
+      </c>
+      <c r="D10">
+        <v>133.7494101524353</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>29.171000000012668</v>
+      </c>
+      <c r="C11">
+        <v>35.641000000007637</v>
+      </c>
+      <c r="D11">
+        <v>133.75808691978455</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>32.411000000015164</v>
+      </c>
+      <c r="C12">
+        <v>38.881000000000085</v>
+      </c>
+      <c r="D12">
+        <v>133.75611209869385</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>35.651000000007613</v>
+      </c>
+      <c r="C13">
+        <v>42.120999999992534</v>
+      </c>
+      <c r="D13">
+        <v>133.71319651603699</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>38.891000000000062</v>
+      </c>
+      <c r="C14">
+        <v>45.360999999984983</v>
+      </c>
+      <c r="D14">
+        <v>133.60034918785095</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>42.130999999992511</v>
+      </c>
+      <c r="C15">
+        <v>48.600999999977432</v>
+      </c>
+      <c r="D15">
+        <v>133.5500168800354</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>45.37099999998496</v>
+      </c>
+      <c r="C16">
+        <v>51.840999999969881</v>
+      </c>
+      <c r="D16">
+        <v>134.64946889877319</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>48.610999999977409</v>
+      </c>
+      <c r="C17">
+        <v>55.08099999996233</v>
+      </c>
+      <c r="D17">
+        <v>132.92249178886414</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>51.850999999969858</v>
+      </c>
+      <c r="C18">
+        <v>58.320999999954779</v>
+      </c>
+      <c r="D18">
+        <v>167.78555154800415</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>55.090999999962307</v>
+      </c>
+      <c r="C19">
+        <v>61.560999999947228</v>
+      </c>
+      <c r="D19">
+        <v>173.94402384757996</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>58.330999999954756</v>
+      </c>
+      <c r="C20">
+        <v>64.800999999945361</v>
+      </c>
+      <c r="D20">
+        <v>147.11124730110168</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>61.570999999947205</v>
+      </c>
+      <c r="C21">
+        <v>68.040999999960832</v>
+      </c>
+      <c r="D21">
+        <v>160.58359360694885</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>64.810999999945409</v>
+      </c>
+      <c r="C22">
+        <v>71.280999999976302</v>
+      </c>
+      <c r="D22">
+        <v>180.91470384597778</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>68.050999999960879</v>
+      </c>
+      <c r="C23">
+        <v>74.520999999991773</v>
+      </c>
+      <c r="D23">
+        <v>186.91895270347595</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>71.29099999997635</v>
+      </c>
+      <c r="C24">
+        <v>77.761000000007243</v>
+      </c>
+      <c r="D24">
+        <v>717.98569970755489</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>74.53099999999182</v>
+      </c>
+      <c r="C25">
+        <v>81.001000000022714</v>
+      </c>
+      <c r="D25">
+        <v>764.95081150141777</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>77.771000000007291</v>
+      </c>
+      <c r="C26">
+        <v>84.241000000038184</v>
+      </c>
+      <c r="D26">
+        <v>766.89527402428212</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>81.011000000022761</v>
+      </c>
+      <c r="C27">
+        <v>87.481000000053655</v>
+      </c>
+      <c r="D27">
+        <v>759.32612939178944</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>84.251000000038232</v>
+      </c>
+      <c r="C28">
+        <v>90.721000000069125</v>
+      </c>
+      <c r="D28">
+        <v>760.83338036388159</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>87.491000000053702</v>
+      </c>
+      <c r="C29">
+        <v>93.961000000084596</v>
+      </c>
+      <c r="D29">
+        <v>766.4287631213665</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>90.731000000069173</v>
+      </c>
+      <c r="C30">
+        <v>97.201000000100066</v>
+      </c>
+      <c r="D30">
+        <v>771.62002344429493</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>93.971000000084643</v>
+      </c>
+      <c r="C31">
+        <v>100.44100000011554</v>
+      </c>
+      <c r="D31">
+        <v>771.72028371691704</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>97.211000000100114</v>
+      </c>
+      <c r="C32">
+        <v>103.68100000013101</v>
+      </c>
+      <c r="D32">
+        <v>772.65044377744198</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>100.45100000011558</v>
+      </c>
+      <c r="C33">
+        <v>106.92100000014648</v>
+      </c>
+      <c r="D33">
+        <v>772.20092316716909</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>103.69100000013106</v>
+      </c>
+      <c r="C34">
+        <v>110.16100000016195</v>
+      </c>
+      <c r="D34">
+        <v>772.15462527424097</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>106.93100000014653</v>
+      </c>
+      <c r="C35">
+        <v>113.40100000017742</v>
+      </c>
+      <c r="D35">
+        <v>772.56536454707384</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>110.171000000162</v>
+      </c>
+      <c r="C36">
+        <v>116.64100000019289</v>
+      </c>
+      <c r="D36">
+        <v>772.72581103444099</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>113.41100000017747</v>
+      </c>
+      <c r="C37">
+        <v>119.88100000020836</v>
+      </c>
+      <c r="D37">
+        <v>773.55816952884197</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>116.65100000019294</v>
+      </c>
+      <c r="C38">
+        <v>123.12100000022383</v>
+      </c>
+      <c r="D38">
+        <v>773.87865922600031</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>119.89100000020841</v>
+      </c>
+      <c r="C39">
+        <v>126.3610000002393</v>
+      </c>
+      <c r="D39">
+        <v>774.83200950175524</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>123.13100000022388</v>
+      </c>
+      <c r="C40">
+        <v>129.60100000025477</v>
+      </c>
+      <c r="D40">
+        <v>774.77114394307137</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>126.37100000023935</v>
+      </c>
+      <c r="C41">
+        <v>132.84100000027024</v>
+      </c>
+      <c r="D41">
+        <v>774.51186812669039</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>129.61100000025482</v>
+      </c>
+      <c r="C42">
+        <v>136.08100000028571</v>
+      </c>
+      <c r="D42">
+        <v>773.26110792905092</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>132.85100000027029</v>
+      </c>
+      <c r="C43">
+        <v>139.32100000030118</v>
+      </c>
+      <c r="D43">
+        <v>773.27771320939064</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>136.09100000028576</v>
+      </c>
+      <c r="C44">
+        <v>142.56100000031665</v>
+      </c>
+      <c r="D44">
+        <v>773.65492454171181</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>139.33100000030123</v>
+      </c>
+      <c r="C45">
+        <v>145.80100000033212</v>
+      </c>
+      <c r="D45">
+        <v>773.96059931814671</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>142.5710000003167</v>
+      </c>
+      <c r="C46">
+        <v>149.04100000034759</v>
+      </c>
+      <c r="D46">
+        <v>776.87600235641003</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>145.81100000033217</v>
+      </c>
+      <c r="C47">
+        <v>152.28100000036306</v>
+      </c>
+      <c r="D47">
+        <v>783.30121701955795</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>149.05100000034764</v>
+      </c>
+      <c r="C48">
+        <v>155.52100000037854</v>
+      </c>
+      <c r="D48">
+        <v>793.41511640325189</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>152.29100000036311</v>
+      </c>
+      <c r="C49">
+        <v>158.76100000039401</v>
+      </c>
+      <c r="D49">
+        <v>803.62740573752671</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>155.53100000037858</v>
+      </c>
+      <c r="C50">
+        <v>162.00100000040948</v>
+      </c>
+      <c r="D50">
+        <v>308.26094284074497</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>158.77100000039405</v>
+      </c>
+      <c r="C51">
+        <v>165.24100000042495</v>
+      </c>
+      <c r="D51">
+        <v>29.826604340225458</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>162.01100000040952</v>
+      </c>
+      <c r="C52">
+        <v>168.48100000044042</v>
+      </c>
+      <c r="D52">
+        <v>102.89828085899353</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>165.25100000042499</v>
+      </c>
+      <c r="C53">
+        <v>171.72100000045589</v>
+      </c>
+      <c r="D53">
+        <v>727.57555417346884</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>168.49100000044047</v>
+      </c>
+      <c r="C54">
+        <v>174.96100000047136</v>
+      </c>
+      <c r="D54">
+        <v>236.16904550252366</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>171.73100000045594</v>
+      </c>
+      <c r="C55">
+        <v>178.20100000048683</v>
+      </c>
+      <c r="D55">
+        <v>37.054472619871376</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>174.97100000047141</v>
+      </c>
+      <c r="C56">
+        <v>181.4410000005023</v>
+      </c>
+      <c r="D56">
+        <v>111.05527055263519</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>178.21100000048688</v>
+      </c>
+      <c r="C57">
+        <v>184.68100000051777</v>
+      </c>
+      <c r="D57">
+        <v>721.29167848764337</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>181.45100000050235</v>
+      </c>
+      <c r="C58">
+        <v>187.92100000053324</v>
+      </c>
+      <c r="D58">
+        <v>800.30220519649447</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>184.69100000051782</v>
+      </c>
+      <c r="C59">
+        <v>191.16100000054871</v>
+      </c>
+      <c r="D59">
+        <v>1.359690035606036</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>187.93100000053329</v>
+      </c>
+      <c r="C60">
+        <v>194.40100000056418</v>
+      </c>
+      <c r="D60">
+        <v>89.086212608963251</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>191.17100000054876</v>
+      </c>
+      <c r="C61">
+        <v>197.64100000057965</v>
+      </c>
+      <c r="D61">
+        <v>155.13949751853943</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>194.41100000056423</v>
+      </c>
+      <c r="C62">
+        <v>200.88100000059512</v>
+      </c>
+      <c r="D62">
+        <v>134.14235496520996</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>197.6510000005797</v>
+      </c>
+      <c r="C63">
+        <v>204.12100000061059</v>
+      </c>
+      <c r="D63">
+        <v>133.63655614852905</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>200.89100000059517</v>
+      </c>
+      <c r="C64">
+        <v>207.36100000062606</v>
+      </c>
+      <c r="D64">
+        <v>133.75093603134155</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>204.13100000061064</v>
+      </c>
+      <c r="C65">
+        <v>210.60100000064153</v>
+      </c>
+      <c r="D65">
+        <v>133.73932027816772</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>207.37100000062611</v>
+      </c>
+      <c r="C66">
+        <v>213.841000000657</v>
+      </c>
+      <c r="D66">
+        <v>399.6889576613903</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>210.61100000064158</v>
+      </c>
+      <c r="C67">
+        <v>217.08100000067247</v>
+      </c>
+      <c r="D67">
+        <v>21.860346136410953</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>213.85100000065705</v>
+      </c>
+      <c r="C68">
+        <v>220.32100000068795</v>
+      </c>
+      <c r="D68">
+        <v>85.323396503925323</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>217.09100000067252</v>
+      </c>
+      <c r="C69">
+        <v>223.56100000070342</v>
+      </c>
+      <c r="D69">
+        <v>412.66801172494888</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>220.33100000068799</v>
+      </c>
+      <c r="C70">
+        <v>226.80100000071889</v>
+      </c>
+      <c r="D70">
+        <v>76.87234180959058</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>223.57100000070346</v>
+      </c>
+      <c r="C71">
+        <v>230.04100000073436</v>
+      </c>
+      <c r="D71">
+        <v>85.421690165996552</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>226.81100000071893</v>
+      </c>
+      <c r="C72">
+        <v>233.28100000074983</v>
+      </c>
+      <c r="D72">
+        <v>151.18011450767517</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>230.0510000007344</v>
+      </c>
+      <c r="C73">
+        <v>236.5210000007653</v>
+      </c>
+      <c r="D73">
+        <v>131.08976101875305</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>233.29100000074988</v>
+      </c>
+      <c r="C74">
+        <v>239.76100000078077</v>
+      </c>
+      <c r="D74">
+        <v>167.3842351436615</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>236.53100000076535</v>
+      </c>
+      <c r="C75">
+        <v>243.00100000079624</v>
+      </c>
+      <c r="D75">
+        <v>692.76649641527911</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>239.77100000078082</v>
+      </c>
+      <c r="C76">
+        <v>246.24100000081171</v>
+      </c>
+      <c r="D76">
+        <v>797.32597433772753</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>243.01100000079629</v>
+      </c>
+      <c r="C77">
+        <v>249.48100000082718</v>
+      </c>
+      <c r="D77">
+        <v>783.61406298351358</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>246.25100000081176</v>
+      </c>
+      <c r="C78">
+        <v>252.72100000084265</v>
+      </c>
+      <c r="D78">
+        <v>773.29556865990162</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>249.49100000082723</v>
+      </c>
+      <c r="C79">
+        <v>255.96100000085812</v>
+      </c>
+      <c r="D79">
+        <v>769.63664870709181</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>252.7310000008427</v>
+      </c>
+      <c r="C80">
+        <v>259.20100000078259</v>
+      </c>
+      <c r="D80">
+        <v>769.05172152072191</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>255.97100000085817</v>
+      </c>
+      <c r="C81">
+        <v>262.44100000070597</v>
+      </c>
+      <c r="D81">
+        <v>769.48804216086864</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>259.21100000078235</v>
+      </c>
+      <c r="C82">
+        <v>265.68100000062935</v>
+      </c>
+      <c r="D82">
+        <v>770.17046641558409</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>262.45100000070573</v>
+      </c>
+      <c r="C83">
+        <v>268.92100000055274</v>
+      </c>
+      <c r="D83">
+        <v>769.71118921041489</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>265.69100000062912</v>
+      </c>
+      <c r="C84">
+        <v>272.16100000047612</v>
+      </c>
+      <c r="D84">
+        <v>768.7262280061841</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>268.9310000005525</v>
+      </c>
+      <c r="C85">
+        <v>275.40100000039951</v>
+      </c>
+      <c r="D85">
+        <v>768.2259374782443</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>272.17100000047589</v>
+      </c>
+      <c r="C86">
+        <v>278.64100000032289</v>
+      </c>
+      <c r="D86">
+        <v>767.72516524046659</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>275.41100000039927</v>
+      </c>
+      <c r="C87">
+        <v>281.88100000024627</v>
+      </c>
+      <c r="D87">
+        <v>767.91281848400831</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>278.65100000032265</v>
+      </c>
+      <c r="C88">
+        <v>285.12100000016966</v>
+      </c>
+      <c r="D88">
+        <v>767.94714677333832</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>281.89100000024604</v>
+      </c>
+      <c r="C89">
+        <v>288.36100000009304</v>
+      </c>
+      <c r="D89">
+        <v>768.36608148366213</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>285.13100000016942</v>
+      </c>
+      <c r="C90">
+        <v>291.60100000001643</v>
+      </c>
+      <c r="D90">
+        <v>769.34563674777746</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>288.37100000009281</v>
+      </c>
+      <c r="C91">
+        <v>294.84099999993981</v>
+      </c>
+      <c r="D91">
+        <v>770.63248229026794</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>291.61100000001619</v>
+      </c>
+      <c r="C92">
+        <v>298.0809999998632</v>
+      </c>
+      <c r="D92">
+        <v>767.46015925705433</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>294.85099999993957</v>
+      </c>
+      <c r="C93">
+        <v>301.32099999978658</v>
+      </c>
+      <c r="D93">
+        <v>756.83309835195541</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>298.09099999986296</v>
+      </c>
+      <c r="C94">
+        <v>304.56099999970996</v>
+      </c>
+      <c r="D94">
+        <v>760.43124389648438</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>301.33099999978634</v>
+      </c>
+      <c r="C95">
+        <v>307.80099999963335</v>
+      </c>
+      <c r="D95">
+        <v>768.05122408270836</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>304.57099999970973</v>
+      </c>
+      <c r="C96">
+        <v>311.04099999955673</v>
+      </c>
+      <c r="D96">
+        <v>772.45020061731339</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>307.81099999963311</v>
+      </c>
+      <c r="C97">
+        <v>314.28099999948012</v>
+      </c>
+      <c r="D97">
+        <v>776.75715725123882</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>311.0509999995565</v>
+      </c>
+      <c r="C98">
+        <v>317.5209999994035</v>
+      </c>
+      <c r="D98">
+        <v>784.31023186072707</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>314.29099999947988</v>
+      </c>
+      <c r="C99">
+        <v>318.85099999937205</v>
+      </c>
+      <c r="D99">
+        <v>801.5613004565239</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>317.53099999940326</v>
+      </c>
+      <c r="C100">
+        <v>318.85099999937205</v>
+      </c>
+      <c r="D100">
+        <v>816.06651514975238</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11248DB-588F-4EBB-9585-E64391490295}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1311,7 +6224,7 @@
         <v>2216.1092515923083</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1319,7 +6232,7 @@
         <v>16.920761108398438</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1327,7 +6240,7 @@
         <v>2.0393972396850586</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1335,7 +6248,7 @@
         <v>0.21885991096496582</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1343,7 +6256,7 @@
         <v>0.2217562198638916</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1351,7 +6264,7 @@
         <v>0.22519612312316895</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1359,7 +6272,7 @@
         <v>0.17850351333618164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1367,7 +6280,7 @@
         <v>0.13936948776245117</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1375,7 +6288,7 @@
         <v>3.1719954013824463</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1383,7 +6296,7 @@
         <v>4.3557491302490234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1391,7 +6304,7 @@
         <v>12.141077280044556</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1399,7 +6312,7 @@
         <v>42.388949632644653</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1407,7 +6320,7 @@
         <v>840.24566382382181</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1415,7 +6328,7 @@
         <v>2183.2784503615185</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1740,29 +6653,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF2FF37-C452-48C5-8706-557C3C3650B4}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1770,7 +6691,7 @@
         <v>27.216358478058154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1778,7 +6699,7 @@
         <v>684.42793681332842</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1786,7 +6707,7 @@
         <v>1847.9131489545107</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1794,7 +6715,7 @@
         <v>1829.1733842641115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1802,7 +6723,7 @@
         <v>1829.6445897370577</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1810,7 +6731,7 @@
         <v>1829.6453750878572</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1818,7 +6739,7 @@
         <v>1829.6557584553957</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1826,7 +6747,7 @@
         <v>1829.6430962830782</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1834,7 +6755,7 @@
         <v>1829.5200269967318</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1842,7 +6763,7 @@
         <v>1829.7649036198854</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1850,7 +6771,7 @@
         <v>1828.597478941083</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1858,7 +6779,7 @@
         <v>1855.8223246899433</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1866,7 +6787,7 @@
         <v>1842.3153141289949</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1874,7 +6795,7 @@
         <v>1864.1096115857363</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
